--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fn1-Sdc2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fn1-Sdc2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H2">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I2">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J2">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.258611672977641</v>
+        <v>0.7065936666666666</v>
       </c>
       <c r="N2">
-        <v>0.258611672977641</v>
+        <v>2.119781</v>
       </c>
       <c r="O2">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="P2">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="Q2">
-        <v>6.606949351142211</v>
+        <v>19.10551949766411</v>
       </c>
       <c r="R2">
-        <v>6.606949351142211</v>
+        <v>171.949675478977</v>
       </c>
       <c r="S2">
-        <v>0.0001300854712556571</v>
+        <v>0.0003681391476987063</v>
       </c>
       <c r="T2">
-        <v>0.0001300854712556571</v>
+        <v>0.0003681391476987064</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H3">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I3">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J3">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.866666870709</v>
+        <v>111.9320066666667</v>
       </c>
       <c r="N3">
-        <v>111.866666870709</v>
+        <v>335.79602</v>
       </c>
       <c r="O3">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="P3">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="Q3">
-        <v>2857.942928816571</v>
+        <v>3026.518969340704</v>
       </c>
       <c r="R3">
-        <v>2857.942928816571</v>
+        <v>27238.67072406634</v>
       </c>
       <c r="S3">
-        <v>0.05627057707845207</v>
+        <v>0.05831718493722594</v>
       </c>
       <c r="T3">
-        <v>0.05627057707845207</v>
+        <v>0.05831718493722595</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H4">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I4">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J4">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.177573683283</v>
+        <v>23.563205</v>
       </c>
       <c r="N4">
-        <v>23.177573683283</v>
+        <v>70.689615</v>
       </c>
       <c r="O4">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="P4">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="Q4">
-        <v>592.1351253972861</v>
+        <v>637.1232771993283</v>
       </c>
       <c r="R4">
-        <v>592.1351253972861</v>
+        <v>5734.109494793955</v>
       </c>
       <c r="S4">
-        <v>0.01165866010778741</v>
+        <v>0.01227655810541263</v>
       </c>
       <c r="T4">
-        <v>0.01165866010778741</v>
+        <v>0.01227655810541263</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H5">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J5">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.258611672977641</v>
+        <v>0.7065936666666666</v>
       </c>
       <c r="N5">
-        <v>0.258611672977641</v>
+        <v>2.119781</v>
       </c>
       <c r="O5">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="P5">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="Q5">
-        <v>88.3151571127069</v>
+        <v>244.1751561330663</v>
       </c>
       <c r="R5">
-        <v>88.3151571127069</v>
+        <v>2197.576405197597</v>
       </c>
       <c r="S5">
-        <v>0.001738853776749134</v>
+        <v>0.004704945807886345</v>
       </c>
       <c r="T5">
-        <v>0.001738853776749134</v>
+        <v>0.004704945807886346</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H6">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I6">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J6">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>111.866666870709</v>
+        <v>111.9320066666667</v>
       </c>
       <c r="N6">
-        <v>111.866666870709</v>
+        <v>335.79602</v>
       </c>
       <c r="O6">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="P6">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="Q6">
-        <v>38202.15130511789</v>
+        <v>38679.96062440519</v>
       </c>
       <c r="R6">
-        <v>38202.15130511789</v>
+        <v>348119.6456196467</v>
       </c>
       <c r="S6">
-        <v>0.7521693585628958</v>
+        <v>0.745313820910707</v>
       </c>
       <c r="T6">
-        <v>0.7521693585628958</v>
+        <v>0.7453138209107071</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H7">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I7">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J7">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.177573683283</v>
+        <v>23.563205</v>
       </c>
       <c r="N7">
-        <v>23.177573683283</v>
+        <v>70.689615</v>
       </c>
       <c r="O7">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="P7">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="Q7">
-        <v>7915.076058873228</v>
+        <v>8142.656142125695</v>
       </c>
       <c r="R7">
-        <v>7915.076058873228</v>
+        <v>73283.90527913126</v>
       </c>
       <c r="S7">
-        <v>0.155841424600128</v>
+        <v>0.1568986644164419</v>
       </c>
       <c r="T7">
-        <v>0.155841424600128</v>
+        <v>0.156898664416442</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H8">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I8">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J8">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.258611672977641</v>
+        <v>0.7065936666666666</v>
       </c>
       <c r="N8">
-        <v>0.258611672977641</v>
+        <v>2.119781</v>
       </c>
       <c r="O8">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="P8">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="Q8">
-        <v>2.154224788980531</v>
+        <v>5.955693359855111</v>
       </c>
       <c r="R8">
-        <v>2.154224788980531</v>
+        <v>53.601240238696</v>
       </c>
       <c r="S8">
-        <v>4.241493796478161E-05</v>
+        <v>0.0001147586632082927</v>
       </c>
       <c r="T8">
-        <v>4.241493796478161E-05</v>
+        <v>0.0001147586632082927</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H9">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I9">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J9">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.866666870709</v>
+        <v>111.9320066666667</v>
       </c>
       <c r="N9">
-        <v>111.866666870709</v>
+        <v>335.79602</v>
       </c>
       <c r="O9">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="P9">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="Q9">
-        <v>931.8448160471997</v>
+        <v>943.4456326289246</v>
       </c>
       <c r="R9">
-        <v>931.8448160471997</v>
+        <v>8491.010693660321</v>
       </c>
       <c r="S9">
-        <v>0.01834726824592422</v>
+        <v>0.01817900168265737</v>
       </c>
       <c r="T9">
-        <v>0.01834726824592422</v>
+        <v>0.01817900168265738</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H10">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I10">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J10">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.177573683283</v>
+        <v>23.563205</v>
       </c>
       <c r="N10">
-        <v>23.177573683283</v>
+        <v>70.689615</v>
       </c>
       <c r="O10">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="P10">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="Q10">
-        <v>193.0682524963513</v>
+        <v>198.6080970940934</v>
       </c>
       <c r="R10">
-        <v>193.0682524963513</v>
+        <v>1787.47287384684</v>
       </c>
       <c r="S10">
-        <v>0.003801357218842932</v>
+        <v>0.003826926328761734</v>
       </c>
       <c r="T10">
-        <v>0.003801357218842932</v>
+        <v>0.003826926328761736</v>
       </c>
     </row>
   </sheetData>
